--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_3_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_3_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1978055.282393378</v>
+        <v>-1814443.013841847</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14364970.54561392</v>
+        <v>12258327.79560123</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393801.3664809169</v>
+        <v>393801.3664809166</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11934971.18839848</v>
+        <v>11999851.70705971</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +671,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>124.2886489809318</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.11631013281968</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
-        <v>24.76484596498758</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>28.11631013281968</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>28.11631013281968</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.80231918358061</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>28.11631013281968</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>28.11631013281968</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>28.11631013281968</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>256.8449069007449</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>256.8449069007449</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>256.8449069007449</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.39546309134823</v>
+        <v>50.77901812021</v>
       </c>
     </row>
     <row r="6">
@@ -975,22 +975,22 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
-        <v>9.923144273335383</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U6" t="n">
         <v>182.9205141195597</v>
@@ -1035,7 +1035,7 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X6" t="n">
         <v>161.8425727710037</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>123.0673923170403</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>256.8449069007449</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>256.8449069007449</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>27.16602241680681</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>73.9135275360872</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>81.48697791125832</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>4.378995526347924</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>42.09444105482045</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>75.58827853203724</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1433,7 +1433,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1531,13 +1531,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429423</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>152.1888284666949</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.64901981295135</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T14" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.5897076523053</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>134.5782361172335</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>126.0090037718574</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>128.8715224160353</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>134.4685551105455</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>128.9197986360705</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>106.6837044342875</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>63.09628120448762</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>10.89362580705894</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>132.7590956334168</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>205.2313529237194</v>
+        <v>218.7757544134975</v>
       </c>
       <c r="U16" t="n">
-        <v>241.7080026420591</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>243.2197513454117</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>236.4292784165725</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>204.4636562160133</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>188.4047392545157</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>152.1888284666949</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.64901981295135</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.5897076523053</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>134.5782361172335</v>
+        <v>103.8121020651556</v>
       </c>
       <c r="D19" t="n">
-        <v>126.0090037718574</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>128.8715224160353</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>134.4685551105455</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>128.9197986360705</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>106.6837044342875</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>63.09628120448733</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>10.89362580705894</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>132.7590956334168</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>205.2313529237194</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>241.7080026420591</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>243.2197513454117</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>236.4292784165725</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>204.4636562160133</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>188.4047392545157</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>152.1888284666948</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.64901981295135</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>152.5897076523053</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>134.5782361172335</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>126.0090037718574</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>128.8715224160353</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>134.4685551105458</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>128.9197986360705</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>106.6837044342875</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>63.09628120448714</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>10.89362580705894</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>132.7590956334168</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
-        <v>205.2313529237194</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>241.7080026420591</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>243.2197513454117</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>236.4292784165725</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>204.4636562160133</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>188.4047392545157</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>67.64901981295135</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>152.5897076523053</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>134.5782361172335</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>126.0090037718574</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>128.8715224160353</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>134.4685551105455</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>128.9197986360705</v>
+        <v>121.2482518332238</v>
       </c>
       <c r="H25" t="n">
-        <v>106.6837044342875</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>63.09628120448714</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>10.89362580705894</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>132.7590956334168</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>205.2313529237194</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>241.7080026420591</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>243.2197513454117</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>236.4292784165725</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>204.4636562160133</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>188.4047392545157</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.64901981295135</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>152.5897076523053</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>134.5782361172335</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>126.0090037718574</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>128.8715224160353</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>134.4685551105455</v>
+        <v>148.0129566003203</v>
       </c>
       <c r="G28" t="n">
-        <v>128.9197986360705</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>106.6837044342875</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>63.09628120448749</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.89362580705894</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>132.7590956334168</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>205.2313529237194</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>241.7080026420591</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>243.2197513454117</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>236.4292784165725</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>204.4636562160133</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>188.4047392545157</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2953,13 +2953,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>51.5854374042939</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.5897076523054</v>
+        <v>152.5897076523053</v>
       </c>
       <c r="C34" t="n">
         <v>134.5782361172335</v>
@@ -3193,7 +3193,7 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E34" t="n">
-        <v>128.8715224160354</v>
+        <v>128.8715224160353</v>
       </c>
       <c r="F34" t="n">
         <v>134.4685551105455</v>
@@ -3202,10 +3202,10 @@
         <v>128.9197986360705</v>
       </c>
       <c r="H34" t="n">
-        <v>106.6837044342875</v>
+        <v>106.6837044342879</v>
       </c>
       <c r="I34" t="n">
-        <v>63.09628120448716</v>
+        <v>63.09628120448714</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705894</v>
       </c>
       <c r="S34" t="n">
         <v>132.7590956334168</v>
@@ -3439,7 +3439,7 @@
         <v>128.9197986360705</v>
       </c>
       <c r="H37" t="n">
-        <v>106.6837044342876</v>
+        <v>106.6837044342875</v>
       </c>
       <c r="I37" t="n">
         <v>63.09628120448714</v>
@@ -4028,7 +4028,7 @@
         <v>67.64901981295135</v>
       </c>
       <c r="T44" t="n">
-        <v>183.0417138731735</v>
+        <v>183.0417138731729</v>
       </c>
       <c r="U44" t="n">
         <v>220.0967589369122</v>
@@ -4138,7 +4138,7 @@
         <v>134.5782361172335</v>
       </c>
       <c r="D46" t="n">
-        <v>126.0090037718574</v>
+        <v>126.0090037718576</v>
       </c>
       <c r="E46" t="n">
         <v>128.8715224160353</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359844</v>
+        <v>529.6688447115025</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730262</v>
+        <v>506.8085187652067</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270697</v>
+        <v>487.5563019906111</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63174095096858</v>
+        <v>465.6197661788727</v>
       </c>
       <c r="F2" t="n">
-        <v>2.547963180772882</v>
+        <v>444.535988408677</v>
       </c>
       <c r="G2" t="n">
-        <v>2.249304810625574</v>
+        <v>40.19692599812562</v>
       </c>
       <c r="H2" t="n">
-        <v>2.249304810625574</v>
+        <v>40.19692599812562</v>
       </c>
       <c r="I2" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812562</v>
       </c>
       <c r="J2" t="n">
-        <v>2.249304810625575</v>
+        <v>402.8003848150211</v>
       </c>
       <c r="K2" t="n">
-        <v>2.249304810625575</v>
+        <v>402.8003848150211</v>
       </c>
       <c r="L2" t="n">
-        <v>2.249304810625575</v>
+        <v>897.4160465707695</v>
       </c>
       <c r="M2" t="n">
-        <v>2.249304810625575</v>
+        <v>1394.853005797574</v>
       </c>
       <c r="N2" t="n">
-        <v>2.249304810625575</v>
+        <v>1394.853005797574</v>
       </c>
       <c r="O2" t="n">
-        <v>28.95979943680427</v>
+        <v>1892.289965024378</v>
       </c>
       <c r="P2" t="n">
-        <v>56.79494646829576</v>
+        <v>1892.289965024378</v>
       </c>
       <c r="Q2" t="n">
-        <v>84.63009349978725</v>
+        <v>1892.289965024378</v>
       </c>
       <c r="R2" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.846299906281</v>
       </c>
       <c r="S2" t="n">
-        <v>112.4652405312787</v>
+        <v>1905.479005779421</v>
       </c>
       <c r="T2" t="n">
-        <v>112.4652405312787</v>
+        <v>1684.553434824055</v>
       </c>
       <c r="U2" t="n">
-        <v>112.4652405312787</v>
+        <v>1426.198525420467</v>
       </c>
       <c r="V2" t="n">
-        <v>112.4652405312787</v>
+        <v>1068.709110546716</v>
       </c>
       <c r="W2" t="n">
-        <v>112.4652405312787</v>
+        <v>672.3177608470633</v>
       </c>
       <c r="X2" t="n">
-        <v>104.78564573943</v>
+        <v>546.7736709673342</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.4887797347244</v>
+        <v>545.4768049626285</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.249304810625575</v>
+        <v>607.3204170295809</v>
       </c>
       <c r="C3" t="n">
-        <v>2.249304810625575</v>
+        <v>489.8145135470857</v>
       </c>
       <c r="D3" t="n">
-        <v>2.249304810625575</v>
+        <v>385.9745550623707</v>
       </c>
       <c r="E3" t="n">
-        <v>2.249304810625575</v>
+        <v>281.2726213353079</v>
       </c>
       <c r="F3" t="n">
-        <v>2.249304810625575</v>
+        <v>187.626791018212</v>
       </c>
       <c r="G3" t="n">
-        <v>2.249304810625575</v>
+        <v>93.57301923581603</v>
       </c>
       <c r="H3" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812562</v>
       </c>
       <c r="I3" t="n">
-        <v>2.249304810625575</v>
+        <v>47.64356896003746</v>
       </c>
       <c r="J3" t="n">
-        <v>2.249304810625575</v>
+        <v>319.3410582396285</v>
       </c>
       <c r="K3" t="n">
-        <v>2.249304810625575</v>
+        <v>805.2828104043484</v>
       </c>
       <c r="L3" t="n">
-        <v>2.249304810625575</v>
+        <v>1302.719769631153</v>
       </c>
       <c r="M3" t="n">
-        <v>2.249304810625575</v>
+        <v>1302.719769631153</v>
       </c>
       <c r="N3" t="n">
-        <v>28.95979943680427</v>
+        <v>1302.719769631153</v>
       </c>
       <c r="O3" t="n">
-        <v>28.95979943680427</v>
+        <v>1302.719769631153</v>
       </c>
       <c r="P3" t="n">
-        <v>56.79494646829576</v>
+        <v>1302.719769631153</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.63009349978725</v>
+        <v>1766.865246493932</v>
       </c>
       <c r="R3" t="n">
-        <v>112.4652405312787</v>
+        <v>1848.884556578636</v>
       </c>
       <c r="S3" t="n">
-        <v>112.4652405312787</v>
+        <v>1767.56030913989</v>
       </c>
       <c r="T3" t="n">
-        <v>87.45024460704886</v>
+        <v>1625.680373437568</v>
       </c>
       <c r="U3" t="n">
-        <v>87.45024460704886</v>
+        <v>1440.912177357205</v>
       </c>
       <c r="V3" t="n">
-        <v>59.04993134157444</v>
+        <v>1235.939038496471</v>
       </c>
       <c r="W3" t="n">
-        <v>30.6496180761</v>
+        <v>1039.417661329688</v>
       </c>
       <c r="X3" t="n">
-        <v>30.6496180761</v>
+        <v>875.9403150963512</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.6496180761</v>
+        <v>736.2474264496436</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.249304810625575</v>
+        <v>470.0210750651405</v>
       </c>
       <c r="C4" t="n">
-        <v>2.249304810625575</v>
+        <v>450.0187324554631</v>
       </c>
       <c r="D4" t="n">
-        <v>2.249304810625575</v>
+        <v>450.0187324554631</v>
       </c>
       <c r="E4" t="n">
-        <v>2.249304810625575</v>
+        <v>450.0187324554631</v>
       </c>
       <c r="F4" t="n">
-        <v>2.249304810625575</v>
+        <v>450.0187324554631</v>
       </c>
       <c r="G4" t="n">
-        <v>2.249304810625575</v>
+        <v>283.7617627496953</v>
       </c>
       <c r="H4" t="n">
-        <v>2.249304810625575</v>
+        <v>139.9654942578497</v>
       </c>
       <c r="I4" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812562</v>
       </c>
       <c r="J4" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812562</v>
       </c>
       <c r="K4" t="n">
-        <v>2.249304810625575</v>
+        <v>240.4523321639094</v>
       </c>
       <c r="L4" t="n">
-        <v>2.249304810625575</v>
+        <v>595.1416534583302</v>
       </c>
       <c r="M4" t="n">
-        <v>2.249304810625575</v>
+        <v>986.327448428581</v>
       </c>
       <c r="N4" t="n">
-        <v>30.08445184211706</v>
+        <v>1363.818959304617</v>
       </c>
       <c r="O4" t="n">
-        <v>57.91959887360855</v>
+        <v>1719.24708798438</v>
       </c>
       <c r="P4" t="n">
-        <v>84.63009349978725</v>
+        <v>2009.846299906281</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.846299906281</v>
       </c>
       <c r="R4" t="n">
-        <v>112.4652405312787</v>
+        <v>1962.807686593454</v>
       </c>
       <c r="S4" t="n">
-        <v>84.0649272658043</v>
+        <v>1792.672639112589</v>
       </c>
       <c r="T4" t="n">
-        <v>55.66461400032987</v>
+        <v>1549.333291338489</v>
       </c>
       <c r="U4" t="n">
-        <v>27.26430073485544</v>
+        <v>1269.148842838794</v>
       </c>
       <c r="V4" t="n">
-        <v>27.26430073485544</v>
+        <v>987.4373754468224</v>
       </c>
       <c r="W4" t="n">
-        <v>27.26430073485544</v>
+        <v>712.5849716193354</v>
       </c>
       <c r="X4" t="n">
-        <v>27.26430073485544</v>
+        <v>470.0210750651405</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.26430073485544</v>
+        <v>470.0210750651405</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>343.4818713130364</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C5" t="n">
-        <v>320.6215453667406</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D5" t="n">
-        <v>301.3693285921449</v>
+        <v>895.898005082137</v>
       </c>
       <c r="E5" t="n">
-        <v>41.9300286924026</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F5" t="n">
-        <v>20.8462509222069</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
-        <v>20.54759255205959</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>20.54759255205959</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>20.54759255205959</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>20.54759255205959</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>20.54759255205959</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>20.54759255205959</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M5" t="n">
-        <v>20.54759255205959</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N5" t="n">
-        <v>146.9939192258647</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>401.2703770576022</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>655.5468348893396</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>909.823292721077</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1027.37962760298</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>923.0123334761199</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>923.0123334761199</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>923.0123334761199</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>663.5730335763776</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>663.5730335763776</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>404.1337336766353</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>359.2898315641623</v>
+        <v>2165.939720175366</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114.1934228691554</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>114.1934228691554</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>114.1934228691554</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>114.1934228691554</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>20.54759255205959</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>20.54759255205959</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>20.54759255205959</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54759255205959</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>20.54759255205959</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>20.54759255205959</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L6" t="n">
-        <v>20.54759255205959</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M6" t="n">
-        <v>20.54759255205959</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N6" t="n">
-        <v>182.5309440230641</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8074018548015</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="P6" t="n">
-        <v>691.083859686539</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>945.3603175182765</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1027.37962760298</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>946.0553801642341</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>936.0320021103599</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>751.2638060299967</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>546.2906671692629</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>546.2906671692629</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>382.8133209359257</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>243.1204322892181</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.54759255205959</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>20.54759255205959</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="D7" t="n">
-        <v>20.54759255205959</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="E7" t="n">
-        <v>20.54759255205959</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="F7" t="n">
-        <v>20.54759255205959</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="G7" t="n">
-        <v>20.54759255205959</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="H7" t="n">
-        <v>20.54759255205959</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>20.54759255205959</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>20.54759255205959</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>20.54759255205959</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>20.54759255205959</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>137.5501238670053</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>391.8265816987427</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>646.1030395304801</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>900.3794973622176</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1027.37962760298</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>980.3410142901527</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>810.2059668092875</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>566.8666190351875</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>307.4273191354451</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>47.98801923570284</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>20.54759255205959</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>20.54759255205959</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.54759255205959</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1416.774797953253</v>
+        <v>2095.759537287837</v>
       </c>
       <c r="C8" t="n">
-        <v>989.8740679665527</v>
+        <v>2021.099408463506</v>
       </c>
       <c r="D8" t="n">
-        <v>970.621851191957</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E8" t="n">
-        <v>544.6449113398146</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5611335696188</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>119.2220711590675</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>36.91199246082674</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>36.91199246082674</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>493.6978991635576</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O8" t="n">
-        <v>815.1719019525203</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>1271.957808655251</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X8" t="n">
-        <v>1837.920028249488</v>
+        <v>2112.864363543668</v>
       </c>
       <c r="Y8" t="n">
-        <v>1432.582758204378</v>
+        <v>2111.567497538963</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.9119924608267</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>36.9119924608267</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>36.9119924608267</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>36.9119924608267</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>36.91199246082674</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>393.2225928484409</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>850.0084995511718</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253903</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>79.43162988993831</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="C10" t="n">
-        <v>79.43162988993831</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="D10" t="n">
-        <v>79.43162988993831</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="E10" t="n">
-        <v>79.43162988993831</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F10" t="n">
-        <v>36.91199246082674</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082674</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>36.91199246082674</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>303.8948463526241</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1385.086614473545</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1104.902165973849</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>823.1906985818782</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>548.3382947543912</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>305.7743982001963</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>79.43162988993831</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1750.140962179913</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1323.240232193213</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>899.9476113782131</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>823.5958148812058</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>823.5958148812058</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>419.2567524706545</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>121.3883739446893</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>86.49150268816048</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>86.49150268816048</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>86.49150268816048</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L11" t="n">
-        <v>216.972230807439</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M11" t="n">
-        <v>1221.258332226497</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N11" t="n">
-        <v>2197.509390713198</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O11" t="n">
-        <v>3042.65404086401</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>3750.933320021938</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>4207.018799526121</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>4324.575134408024</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>4220.207840281164</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3999.282269325797</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3740.92735992221</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3383.437945048459</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2987.046595348806</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2575.326596516553</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2169.989326471443</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>653.6149937196157</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>536.1090902371204</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>432.2691317524055</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>327.5671980253427</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>233.9213677082469</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>139.8675959258509</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>86.49150268816048</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>86.49150268816048</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>86.49150268816048</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>86.49150268816048</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>86.49150268816048</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>86.49150268816048</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N12" t="n">
-        <v>86.49150268816048</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O12" t="n">
-        <v>975.9727806996322</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P12" t="n">
-        <v>1349.014346321188</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1813.159823183967</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1895.17913326867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1813.854885829925</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1671.974950127603</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1487.20675404724</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1282.233615186506</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1085.712238019723</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>922.234891786386</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>782.5420031396784</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>310.5705682378245</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C13" t="n">
-        <v>138.5980051167405</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D13" t="n">
-        <v>86.49150268816048</v>
+        <v>208.2661037548711</v>
       </c>
       <c r="E13" t="n">
-        <v>86.49150268816048</v>
+        <v>208.2661037548711</v>
       </c>
       <c r="F13" t="n">
-        <v>86.49150268816048</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>86.49150268816048</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>86.49150268816048</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>86.49150268816048</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>143.9828309123185</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>370.5104321181557</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>725.1997534125765</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1116.385548382827</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1493.877059258863</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1849.305187938626</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2139.904399860527</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2266.904530101289</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2219.865916788462</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2049.730869307597</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T13" t="n">
-        <v>1806.391521533497</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U13" t="n">
-        <v>1526.207073033801</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.49560564183</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W13" t="n">
-        <v>969.6432018143431</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X13" t="n">
-        <v>727.0793052601482</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y13" t="n">
-        <v>500.7365369498902</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2038.420569231547</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1647.5547901263</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1260.297120192755</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>870.3551312220667</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>716.6290418617688</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>348.3249303326715</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>86.49150268816048</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>86.49150268816048</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>216.972230807439</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>216.972230807439</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>216.972230807439</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>1221.258332226497</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N14" t="n">
-        <v>2197.509390713198</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>3042.65404086401</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>3750.933320021938</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>4207.018799526121</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>4324.575134408024</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>4256.242791162618</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4071.352171088706</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>3849.032212566572</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3527.577748574276</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3167.221349756077</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2791.536301805278</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2422.233982641623</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>653.6149937196157</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>536.1090902371204</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>432.2691317524055</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>327.5671980253427</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>233.9213677082469</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>139.8675959258509</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>86.49150268816048</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>86.49150268816048</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>86.49150268816048</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>86.49150268816048</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>86.49150268816048</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>86.49150268816048</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>86.49150268816048</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>975.9727806996322</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
-        <v>1692.17049773813</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1813.159823183967</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1895.17913326867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1813.854885829925</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1671.974950127603</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1487.20675404724</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1282.233615186506</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1085.712238019723</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>922.234891786386</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>782.5420031396784</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>917.4279690422185</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C16" t="n">
-        <v>781.4903568025886</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D16" t="n">
-        <v>654.2085348108135</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E16" t="n">
-        <v>524.0352798451213</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F16" t="n">
-        <v>388.2084565011359</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G16" t="n">
-        <v>257.9864376768222</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>150.2251200664308</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>86.49150268816048</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>179.3006862712318</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>441.1461428359819</v>
+        <v>386.3216428358268</v>
       </c>
       <c r="L16" t="n">
-        <v>831.1533194893159</v>
+        <v>741.0109641302477</v>
       </c>
       <c r="M16" t="n">
-        <v>1257.65696981848</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N16" t="n">
-        <v>1670.466336053429</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O16" t="n">
-        <v>2061.212320092105</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P16" t="n">
-        <v>2387.12938737292</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q16" t="n">
-        <v>2549.447372972595</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R16" t="n">
-        <v>2538.443710541222</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S16" t="n">
-        <v>2404.343613941811</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.039217049165</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="U16" t="n">
-        <v>1952.889719430924</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V16" t="n">
-        <v>1707.213202920407</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W16" t="n">
-        <v>1468.395749974374</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X16" t="n">
-        <v>1261.866804301634</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y16" t="n">
-        <v>1071.55898687283</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2038.420569231547</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>1647.5547901263</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1260.297120192755</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>870.3551312220667</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>716.6290418617688</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>348.3249303326715</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>86.49150268816048</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
-        <v>86.49150268816048</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>86.49150268816048</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>801.9998106636596</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1731.624858282936</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>1731.624858282936</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N17" t="n">
-        <v>2707.875916769637</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3042.65404086401</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>3750.933320021938</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>4207.018799526121</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>4324.575134408024</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>4256.242791162618</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4071.352171088706</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
-        <v>3849.032212566572</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>3527.577748574276</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3167.221349756077</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>2791.536301805278</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2422.233982641623</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>653.6149937196157</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>536.1090902371204</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>432.2691317524055</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>327.5671980253427</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>233.9213677082469</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>139.8675959258509</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>86.49150268816048</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>86.49150268816048</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>86.49150268816048</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>86.49150268816048</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>86.49150268816048</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>86.49150268816048</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>86.49150268816048</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>975.9727806996322</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1349.014346321188</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1813.159823183967</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
-        <v>1895.17913326867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1813.854885829925</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1671.974950127603</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1487.20675404724</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1282.233615186506</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1085.712238019723</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>922.234891786386</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>782.5420031396784</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>917.427969042218</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>781.4903568025882</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D19" t="n">
-        <v>654.208534810813</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E19" t="n">
-        <v>524.0352798451211</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F19" t="n">
-        <v>388.2084565011356</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
-        <v>257.9864376768219</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>150.2251200664305</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>86.49150268816048</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>179.3006862712318</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>441.1461428359822</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>831.1533194893161</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1257.65696981848</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1670.466336053429</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>2061.212320092106</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2387.12938737292</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2549.447372972595</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2538.443710541222</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2404.343613941811</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.039217049165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1952.889719430924</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1707.213202920407</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1468.395749974374</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1261.866804301633</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>1071.55898687283</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2038.420569231547</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>1647.5547901263</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1260.297120192755</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>870.3551312220666</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>716.6290418617688</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>348.3249303326715</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>86.49150268816048</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
-        <v>86.49150268816048</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>86.49150268816048</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>86.49150268816048</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>216.972230807439</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>1221.258332226497</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>2197.509390713198</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3042.65404086401</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>3750.933320021938</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4207.018799526121</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>4324.575134408024</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>4256.242791162618</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4071.352171088706</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
-        <v>3849.032212566572</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>3527.577748574276</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3167.221349756077</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>2791.536301805278</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2422.233982641623</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>653.6149937196157</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>536.1090902371204</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>432.2691317524055</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>327.5671980253427</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>233.9213677082469</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>139.8675959258509</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>86.49150268816048</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>86.49150268816048</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>86.49150268816048</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>86.49150268816048</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>86.49150268816048</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>86.49150268816048</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>86.49150268816048</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>975.9727806996322</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1349.014346321188</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1813.159823183967</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
-        <v>1895.17913326867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>1813.854885829925</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>1671.974950127603</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>1487.20675404724</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>1282.233615186506</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>1085.712238019723</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>922.234891786386</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>782.5420031396784</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>917.4279690422184</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>781.4903568025886</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>654.2085348108135</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>524.0352798451213</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>388.2084565011354</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>257.9864376768218</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>150.2251200664303</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>86.49150268816048</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>179.3006862712317</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>441.1461428359821</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>831.1533194893161</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>1257.65696981848</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1670.466336053429</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>2061.212320092106</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2387.12938737292</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2549.447372972595</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2538.443710541222</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2404.343613941811</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.039217049165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1952.889719430924</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1707.213202920407</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1468.395749974374</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1261.866804301633</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>1071.55898687283</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2278.587040220166</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>1887.72126111492</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E23" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>721.432371281541</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>91.29483210793285</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
-        <v>91.29483210793285</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>91.29483210793285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>806.8031400834319</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>806.8031400834319</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>1461.424803215116</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>2437.675861701817</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3282.820511852629</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>3991.099791010557</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4447.18527051474</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>4564.741605396643</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>4496.409262151237</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4311.518642077324</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
-        <v>4089.198683555191</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V23" t="n">
-        <v>3767.744219562895</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W23" t="n">
-        <v>3407.387820744696</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X23" t="n">
-        <v>3031.702772793897</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y23" t="n">
-        <v>2662.400453630242</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>91.29483210793285</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>91.29483210793285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>91.29483210793285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>91.29483210793285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>91.29483210793285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>91.29483210793285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>91.29483210793285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>637.6199587024621</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1353.81767574096</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1817.963152603739</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>922.2312984619898</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C25" t="n">
-        <v>786.2936862223601</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D25" t="n">
-        <v>659.0118642305852</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E25" t="n">
-        <v>528.838609264893</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="F25" t="n">
-        <v>393.0117859209076</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="G25" t="n">
-        <v>262.7897670965941</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H25" t="n">
-        <v>155.0284494862027</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>91.29483210793285</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>184.1040156910041</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>445.9494722557544</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>835.9566489090882</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>1262.460299238252</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>1675.269665473201</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>2066.015649511877</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>2391.932716792691</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>2554.250702392366</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2543.247039960994</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2409.146943361583</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>2201.842546468937</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U25" t="n">
-        <v>1957.693048850696</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V25" t="n">
-        <v>1712.016532340179</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W25" t="n">
-        <v>1473.199079394146</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X25" t="n">
-        <v>1266.670133721405</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y25" t="n">
-        <v>1076.362316292601</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2278.587040220165</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>1887.72126111492</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E26" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>721.4323712815412</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>91.29483210793285</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
-        <v>91.29483210793285</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>91.29483210793285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>91.29483210793285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>457.1387017960581</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>1461.424803215116</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N26" t="n">
-        <v>2437.675861701817</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>3282.820511852629</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>3991.099791010557</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>4447.18527051474</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>4564.741605396643</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>4496.409262151237</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4311.518642077324</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
-        <v>4089.198683555191</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>3767.744219562894</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3407.387820744695</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3031.702772793897</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
-        <v>2662.400453630242</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C27" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D27" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E27" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F27" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
-        <v>91.29483210793285</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>91.29483210793285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>91.29483210793285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>91.29483210793285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>91.29483210793285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M27" t="n">
-        <v>91.29483210793285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N27" t="n">
-        <v>91.29483210793285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O27" t="n">
-        <v>637.6199587024621</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P27" t="n">
-        <v>1353.81767574096</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1817.963152603739</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S27" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T27" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U27" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V27" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W27" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X27" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y27" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>922.2312984619907</v>
+        <v>1163.130098674646</v>
       </c>
       <c r="C28" t="n">
-        <v>786.293686222361</v>
+        <v>991.1575355535624</v>
       </c>
       <c r="D28" t="n">
-        <v>659.0118642305858</v>
+        <v>827.8407626803331</v>
       </c>
       <c r="E28" t="n">
-        <v>528.8386092648935</v>
+        <v>661.6325568331866</v>
       </c>
       <c r="F28" t="n">
-        <v>393.0117859209081</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>262.7897670965945</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>155.028449486203</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
-        <v>91.29483210793285</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>184.1040156910041</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>445.9494722557545</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>835.9566489090885</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>1262.460299238252</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>1675.269665473201</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>2066.015649511878</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>2391.932716792693</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>2554.250702392368</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2543.247039960994</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2409.146943361583</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>2201.842546468938</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1957.693048850696</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V28" t="n">
-        <v>1712.016532340179</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W28" t="n">
-        <v>1473.199079394147</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="X28" t="n">
-        <v>1266.670133721406</v>
+        <v>1579.63883569697</v>
       </c>
       <c r="Y28" t="n">
-        <v>1076.362316292602</v>
+        <v>1353.296067386712</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,43 +6449,43 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.8188681099</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
         <v>5010.768376164568</v>
@@ -6497,10 +6497,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
         <v>3365.887132399955</v>
@@ -6537,25 +6537,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N30" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>648.6278400003578</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
         <v>1364.825557038856</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554922</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344082</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6619,10 +6619,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6640,31 +6640,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818956</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251164</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>985.4544125320107</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778158</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675578</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2278.587040220165</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>1887.72126111492</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>721.4323712815411</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>91.29483210793285</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
-        <v>91.29483210793285</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>91.29483210793285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>91.29483210793285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>457.1387017960581</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>1461.424803215116</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N32" t="n">
-        <v>2437.675861701817</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3282.820511852629</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>3991.099791010557</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>4447.18527051474</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>4564.741605396643</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>4496.409262151237</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4311.518642077325</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
-        <v>4089.198683555192</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>3767.744219562896</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3407.387820744696</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3031.702772793897</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2662.400453630241</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>91.29483210793285</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>91.29483210793285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>91.29483210793285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>91.29483210793285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>91.29483210793285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>91.29483210793285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>91.29483210793285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>637.6199587024621</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1353.81767574096</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1817.963152603739</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.2312984619904</v>
+        <v>933.2391797598864</v>
       </c>
       <c r="C34" t="n">
-        <v>786.2936862223606</v>
+        <v>797.3015675202566</v>
       </c>
       <c r="D34" t="n">
-        <v>659.0118642305855</v>
+        <v>670.0197455284815</v>
       </c>
       <c r="E34" t="n">
-        <v>528.8386092648933</v>
+        <v>539.8464905627893</v>
       </c>
       <c r="F34" t="n">
-        <v>393.0117859209079</v>
+        <v>404.0196672188039</v>
       </c>
       <c r="G34" t="n">
-        <v>262.7897670965941</v>
+        <v>273.7976483944902</v>
       </c>
       <c r="H34" t="n">
-        <v>155.0284494862027</v>
+        <v>166.0363307840984</v>
       </c>
       <c r="I34" t="n">
-        <v>91.29483210793285</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>184.1040156910042</v>
+        <v>195.1118969888998</v>
       </c>
       <c r="K34" t="n">
-        <v>445.9494722557547</v>
+        <v>456.9573535536502</v>
       </c>
       <c r="L34" t="n">
-        <v>835.9566489090889</v>
+        <v>846.9645302069841</v>
       </c>
       <c r="M34" t="n">
-        <v>1262.460299238253</v>
+        <v>1273.468180536148</v>
       </c>
       <c r="N34" t="n">
-        <v>1675.269665473202</v>
+        <v>1686.277546771097</v>
       </c>
       <c r="O34" t="n">
-        <v>2066.015649511878</v>
+        <v>2077.023530809774</v>
       </c>
       <c r="P34" t="n">
-        <v>2391.932716792692</v>
+        <v>2402.940598090588</v>
       </c>
       <c r="Q34" t="n">
-        <v>2554.250702392367</v>
+        <v>2565.258583690263</v>
       </c>
       <c r="R34" t="n">
-        <v>2543.247039960994</v>
+        <v>2554.25492125889</v>
       </c>
       <c r="S34" t="n">
-        <v>2409.146943361583</v>
+        <v>2420.154824659479</v>
       </c>
       <c r="T34" t="n">
-        <v>2201.842546468938</v>
+        <v>2212.850427766833</v>
       </c>
       <c r="U34" t="n">
-        <v>1957.693048850696</v>
+        <v>1968.700930148592</v>
       </c>
       <c r="V34" t="n">
-        <v>1712.016532340179</v>
+        <v>1723.024413638075</v>
       </c>
       <c r="W34" t="n">
-        <v>1473.199079394147</v>
+        <v>1484.206960692042</v>
       </c>
       <c r="X34" t="n">
-        <v>1266.670133721406</v>
+        <v>1277.678015019301</v>
       </c>
       <c r="Y34" t="n">
-        <v>1076.362316292602</v>
+        <v>1087.370197590498</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2278.587040220166</v>
+        <v>2278.587040220167</v>
       </c>
       <c r="C35" t="n">
-        <v>1887.72126111492</v>
+        <v>1887.721261114921</v>
       </c>
       <c r="D35" t="n">
-        <v>1500.463591181375</v>
+        <v>1500.463591181376</v>
       </c>
       <c r="E35" t="n">
-        <v>1110.521602210686</v>
+        <v>1110.521602210687</v>
       </c>
       <c r="F35" t="n">
-        <v>721.4323712815408</v>
+        <v>721.4323712815412</v>
       </c>
       <c r="G35" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H35" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I35" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J35" t="n">
-        <v>91.29483210793285</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K35" t="n">
-        <v>91.29483210793285</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L35" t="n">
-        <v>457.1387017960581</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M35" t="n">
-        <v>1461.424803215116</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="N35" t="n">
-        <v>2437.675861701817</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="O35" t="n">
-        <v>3282.820511852629</v>
+        <v>3282.82051185263</v>
       </c>
       <c r="P35" t="n">
-        <v>3991.099791010557</v>
+        <v>3991.099791010558</v>
       </c>
       <c r="Q35" t="n">
-        <v>4447.18527051474</v>
+        <v>4447.185270514741</v>
       </c>
       <c r="R35" t="n">
-        <v>4564.741605396643</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="S35" t="n">
-        <v>4496.409262151237</v>
+        <v>4496.409262151238</v>
       </c>
       <c r="T35" t="n">
-        <v>4311.518642077324</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U35" t="n">
-        <v>4089.198683555191</v>
+        <v>4089.198683555192</v>
       </c>
       <c r="V35" t="n">
-        <v>3767.744219562895</v>
+        <v>3767.744219562896</v>
       </c>
       <c r="W35" t="n">
-        <v>3407.387820744696</v>
+        <v>3407.387820744697</v>
       </c>
       <c r="X35" t="n">
-        <v>3031.702772793897</v>
+        <v>3031.702772793898</v>
       </c>
       <c r="Y35" t="n">
-        <v>2662.400453630242</v>
+        <v>2662.400453630243</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H36" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I36" t="n">
-        <v>91.29483210793285</v>
+        <v>98.74147506984471</v>
       </c>
       <c r="J36" t="n">
-        <v>91.29483210793285</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="K36" t="n">
-        <v>91.29483210793285</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="L36" t="n">
-        <v>91.29483210793285</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="M36" t="n">
-        <v>91.29483210793285</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="N36" t="n">
-        <v>91.29483210793285</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="O36" t="n">
-        <v>637.6199587024621</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="P36" t="n">
         <v>1353.81767574096</v>
@@ -7069,70 +7069,70 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.2312984619905</v>
+        <v>922.2312984619903</v>
       </c>
       <c r="C37" t="n">
-        <v>786.2936862223607</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D37" t="n">
-        <v>659.0118642305856</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E37" t="n">
-        <v>528.8386092648933</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F37" t="n">
         <v>393.0117859209078</v>
       </c>
       <c r="G37" t="n">
-        <v>262.789767096594</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H37" t="n">
         <v>155.0284494862027</v>
       </c>
       <c r="I37" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J37" t="n">
-        <v>184.1040156910041</v>
+        <v>184.1040156910044</v>
       </c>
       <c r="K37" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557549</v>
       </c>
       <c r="L37" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090889</v>
       </c>
       <c r="M37" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N37" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O37" t="n">
         <v>2066.015649511878</v>
       </c>
       <c r="P37" t="n">
-        <v>2391.932716792692</v>
+        <v>2391.932716792693</v>
       </c>
       <c r="Q37" t="n">
-        <v>2554.250702392367</v>
+        <v>2554.250702392368</v>
       </c>
       <c r="R37" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S37" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T37" t="n">
         <v>2201.842546468938</v>
       </c>
       <c r="U37" t="n">
-        <v>1957.693048850696</v>
+        <v>1957.693048850697</v>
       </c>
       <c r="V37" t="n">
-        <v>1712.016532340179</v>
+        <v>1712.01653234018</v>
       </c>
       <c r="W37" t="n">
-        <v>1473.199079394146</v>
+        <v>1473.199079394147</v>
       </c>
       <c r="X37" t="n">
         <v>1266.670133721406</v>
@@ -7160,7 +7160,7 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F38" t="n">
-        <v>721.4323712815412</v>
+        <v>721.432371281541</v>
       </c>
       <c r="G38" t="n">
         <v>353.1282597524439</v>
@@ -7172,10 +7172,10 @@
         <v>91.29483210793288</v>
       </c>
       <c r="J38" t="n">
-        <v>453.8982909248284</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="K38" t="n">
-        <v>453.8982909248284</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="L38" t="n">
         <v>457.138701796059</v>
@@ -7208,7 +7208,7 @@
         <v>4089.198683555192</v>
       </c>
       <c r="V38" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W38" t="n">
         <v>3407.387820744696</v>
@@ -7248,22 +7248,22 @@
         <v>91.29483210793288</v>
       </c>
       <c r="I39" t="n">
-        <v>91.29483210793288</v>
+        <v>98.74147506984471</v>
       </c>
       <c r="J39" t="n">
-        <v>91.29483210793288</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="K39" t="n">
-        <v>91.29483210793288</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="L39" t="n">
-        <v>91.29483210793288</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="M39" t="n">
-        <v>91.29483210793288</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="N39" t="n">
-        <v>91.29483210793288</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="O39" t="n">
         <v>637.6199587024621</v>
@@ -7333,10 +7333,10 @@
         <v>184.1040156910041</v>
       </c>
       <c r="K40" t="n">
-        <v>445.9494722557537</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L40" t="n">
-        <v>835.9566489090877</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M40" t="n">
         <v>1262.460299238252</v>
@@ -7345,10 +7345,10 @@
         <v>1675.269665473201</v>
       </c>
       <c r="O40" t="n">
-        <v>2066.015649511877</v>
+        <v>2066.015649511878</v>
       </c>
       <c r="P40" t="n">
-        <v>2391.932716792691</v>
+        <v>2391.932716792692</v>
       </c>
       <c r="Q40" t="n">
         <v>2554.250702392366</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2278.587040220167</v>
+        <v>2278.587040220166</v>
       </c>
       <c r="C41" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D41" t="n">
         <v>1500.463591181375</v>
@@ -7397,64 +7397,64 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F41" t="n">
-        <v>721.4323712815411</v>
+        <v>721.432371281541</v>
       </c>
       <c r="G41" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H41" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I41" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J41" t="n">
-        <v>91.29483210793288</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K41" t="n">
-        <v>457.138701796059</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="L41" t="n">
-        <v>457.138701796059</v>
+        <v>457.1387017960581</v>
       </c>
       <c r="M41" t="n">
-        <v>1461.424803215117</v>
+        <v>1461.424803215116</v>
       </c>
       <c r="N41" t="n">
-        <v>2437.675861701818</v>
+        <v>2437.675861701817</v>
       </c>
       <c r="O41" t="n">
-        <v>3282.82051185263</v>
+        <v>3282.820511852629</v>
       </c>
       <c r="P41" t="n">
-        <v>3991.099791010558</v>
+        <v>3991.099791010557</v>
       </c>
       <c r="Q41" t="n">
-        <v>4447.185270514741</v>
+        <v>4447.18527051474</v>
       </c>
       <c r="R41" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S41" t="n">
-        <v>4496.409262151238</v>
+        <v>4496.409262151237</v>
       </c>
       <c r="T41" t="n">
-        <v>4311.518642077326</v>
+        <v>4311.518642077324</v>
       </c>
       <c r="U41" t="n">
-        <v>4089.198683555192</v>
+        <v>4089.198683555191</v>
       </c>
       <c r="V41" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W41" t="n">
-        <v>3407.387820744697</v>
+        <v>3407.387820744696</v>
       </c>
       <c r="X41" t="n">
         <v>3031.702772793898</v>
       </c>
       <c r="Y41" t="n">
-        <v>2662.400453630243</v>
+        <v>2662.400453630242</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H42" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I42" t="n">
-        <v>91.29483210793288</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="J42" t="n">
-        <v>91.29483210793288</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="K42" t="n">
-        <v>91.29483210793288</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="L42" t="n">
-        <v>91.29483210793288</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="M42" t="n">
-        <v>91.29483210793288</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="N42" t="n">
-        <v>464.3363977294885</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="O42" t="n">
-        <v>1353.81767574096</v>
+        <v>637.6199587024621</v>
       </c>
       <c r="P42" t="n">
         <v>1353.81767574096</v>
@@ -7543,61 +7543,61 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.2312984619905</v>
+        <v>922.2312984619903</v>
       </c>
       <c r="C43" t="n">
-        <v>786.2936862223607</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D43" t="n">
-        <v>659.0118642305856</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E43" t="n">
-        <v>528.8386092648933</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F43" t="n">
-        <v>393.0117859209079</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G43" t="n">
-        <v>262.7897670965942</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H43" t="n">
-        <v>155.0284494862028</v>
+        <v>155.0284494862027</v>
       </c>
       <c r="I43" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J43" t="n">
-        <v>184.1040156910044</v>
+        <v>184.1040156910033</v>
       </c>
       <c r="K43" t="n">
-        <v>445.9494722557549</v>
+        <v>445.9494722557537</v>
       </c>
       <c r="L43" t="n">
-        <v>835.9566489090889</v>
+        <v>835.9566489090877</v>
       </c>
       <c r="M43" t="n">
-        <v>1262.460299238253</v>
+        <v>1262.460299238252</v>
       </c>
       <c r="N43" t="n">
-        <v>1675.269665473202</v>
+        <v>1675.269665473201</v>
       </c>
       <c r="O43" t="n">
-        <v>2066.015649511878</v>
+        <v>2066.015649511877</v>
       </c>
       <c r="P43" t="n">
-        <v>2391.932716792692</v>
+        <v>2391.932716792691</v>
       </c>
       <c r="Q43" t="n">
-        <v>2554.250702392367</v>
+        <v>2554.250702392366</v>
       </c>
       <c r="R43" t="n">
-        <v>2543.247039960995</v>
+        <v>2543.247039960994</v>
       </c>
       <c r="S43" t="n">
-        <v>2409.146943361584</v>
+        <v>2409.146943361583</v>
       </c>
       <c r="T43" t="n">
-        <v>2201.842546468938</v>
+        <v>2201.842546468937</v>
       </c>
       <c r="U43" t="n">
         <v>1957.693048850696</v>
@@ -7606,10 +7606,10 @@
         <v>1712.016532340179</v>
       </c>
       <c r="W43" t="n">
-        <v>1473.199079394147</v>
+        <v>1473.199079394146</v>
       </c>
       <c r="X43" t="n">
-        <v>1266.670133721406</v>
+        <v>1266.670133721405</v>
       </c>
       <c r="Y43" t="n">
         <v>1076.362316292602</v>
@@ -7622,58 +7622,58 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2278.587040220167</v>
+        <v>2278.587040220166</v>
       </c>
       <c r="C44" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D44" t="n">
-        <v>1500.463591181376</v>
+        <v>1500.463591181375</v>
       </c>
       <c r="E44" t="n">
         <v>1110.521602210687</v>
       </c>
       <c r="F44" t="n">
-        <v>721.4323712815412</v>
+        <v>721.432371281541</v>
       </c>
       <c r="G44" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H44" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I44" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J44" t="n">
-        <v>91.29483210793288</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K44" t="n">
-        <v>91.29483210793288</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L44" t="n">
-        <v>457.138701796059</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M44" t="n">
-        <v>1461.424803215117</v>
+        <v>2437.675861701817</v>
       </c>
       <c r="N44" t="n">
-        <v>2437.675861701818</v>
+        <v>2437.675861701817</v>
       </c>
       <c r="O44" t="n">
-        <v>3282.82051185263</v>
+        <v>3282.820511852629</v>
       </c>
       <c r="P44" t="n">
-        <v>3991.099791010558</v>
+        <v>3991.099791010557</v>
       </c>
       <c r="Q44" t="n">
-        <v>4447.185270514741</v>
+        <v>4447.18527051474</v>
       </c>
       <c r="R44" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S44" t="n">
-        <v>4496.409262151238</v>
+        <v>4496.409262151237</v>
       </c>
       <c r="T44" t="n">
         <v>4311.518642077325</v>
@@ -7682,16 +7682,16 @@
         <v>4089.198683555192</v>
       </c>
       <c r="V44" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W44" t="n">
-        <v>3407.387820744697</v>
+        <v>3407.387820744696</v>
       </c>
       <c r="X44" t="n">
         <v>3031.702772793898</v>
       </c>
       <c r="Y44" t="n">
-        <v>2662.400453630243</v>
+        <v>2662.400453630242</v>
       </c>
     </row>
     <row r="45">
@@ -7719,25 +7719,25 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H45" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I45" t="n">
-        <v>91.29483210793288</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="J45" t="n">
-        <v>91.29483210793288</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="K45" t="n">
-        <v>91.29483210793288</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="L45" t="n">
-        <v>91.29483210793288</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="M45" t="n">
-        <v>91.29483210793288</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="N45" t="n">
-        <v>637.6199587024621</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="O45" t="n">
         <v>637.6199587024621</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.2312984619903</v>
+        <v>922.2312984619905</v>
       </c>
       <c r="C46" t="n">
-        <v>786.2936862223605</v>
+        <v>786.2936862223607</v>
       </c>
       <c r="D46" t="n">
         <v>659.0118642305854</v>
@@ -7801,16 +7801,16 @@
         <v>155.0284494862027</v>
       </c>
       <c r="I46" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J46" t="n">
-        <v>184.1040156910033</v>
+        <v>184.1040156910041</v>
       </c>
       <c r="K46" t="n">
-        <v>445.9494722557537</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L46" t="n">
-        <v>835.9566489090877</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M46" t="n">
         <v>1262.460299238252</v>
@@ -7819,13 +7819,13 @@
         <v>1675.269665473201</v>
       </c>
       <c r="O46" t="n">
-        <v>2066.015649511877</v>
+        <v>2066.015649511878</v>
       </c>
       <c r="P46" t="n">
-        <v>2391.932716792691</v>
+        <v>2391.932716792692</v>
       </c>
       <c r="Q46" t="n">
-        <v>2554.250702392366</v>
+        <v>2554.250702392367</v>
       </c>
       <c r="R46" t="n">
         <v>2543.247039960994</v>
@@ -7834,7 +7834,7 @@
         <v>2409.146943361583</v>
       </c>
       <c r="T46" t="n">
-        <v>2201.842546468937</v>
+        <v>2201.842546468938</v>
       </c>
       <c r="U46" t="n">
         <v>1957.693048850696</v>
@@ -7846,7 +7846,7 @@
         <v>1473.199079394146</v>
       </c>
       <c r="X46" t="n">
-        <v>1266.670133721405</v>
+        <v>1266.670133721406</v>
       </c>
       <c r="Y46" t="n">
         <v>1076.362316292602</v>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>537.9238219838838</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>539.8928378760021</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>64.37125695822481</v>
+        <v>539.8525343325944</v>
       </c>
       <c r="P2" t="n">
-        <v>65.69167194305098</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>64.24098473741773</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>63.14896002761616</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8052,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>513.2494885451716</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>524.9766616907998</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>48.32332581574237</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>49.88715133764835</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.86334842179818</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>51.78922952696383</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,25 +8137,25 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>223.2428424989583</v>
       </c>
       <c r="L4" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>48.86521110842008</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>50.61549763124414</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>49.36109826018719</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.73587289760464</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>165.0031851312189</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>294.235866256769</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>294.4202687109762</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>292.9695815053429</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8292,10 +8292,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
@@ -8304,19 +8304,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>184.9625751539502</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>280.0167966229671</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>278.6157481055736</v>
+        <v>549.2245073196783</v>
       </c>
       <c r="Q6" t="n">
-        <v>279.5919451897234</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,25 +8371,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>140.7598149570875</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>277.5938078763453</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>279.3440943991694</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>279.2257075587314</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8456,25 +8456,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>362.1121742943703</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8541,16 +8541,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>381.2527255747681</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8608,13 +8608,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>291.5984102914562</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>170.1107577046214</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
@@ -8702,7 +8702,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>500.1648957193109</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8778,19 +8778,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O12" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>398.5805034488242</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>161.218674757585</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9018,13 +9018,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q15" t="n">
-        <v>144.9584781332583</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9170,13 +9170,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>375.5506806634718</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9255,10 +9255,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>398.5805034488242</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
         <v>491.5808533018869</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1107577046214</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9492,10 +9492,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>398.5805034488242</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
@@ -9635,19 +9635,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>698.6652660627493</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9729,10 +9729,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>575.0154519389184</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>407.8513047438605</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9948,16 +9948,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
@@ -9966,10 +9966,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>575.0154519389184</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1027.22025995478</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10185,16 +10185,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10203,10 +10203,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>575.0154519389184</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>407.8513047438605</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -10440,10 +10440,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>575.0154519389184</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>407.8513047438605</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>379.3444866548641</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10677,10 +10677,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>575.0154519389184</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>41.5851847267952</v>
+        <v>407.8513047438615</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10914,7 +10914,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>575.0154519389184</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P39" t="n">
         <v>745.2028786174529</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>405.3038631060479</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>41.58518472679434</v>
       </c>
       <c r="M41" t="n">
         <v>1051.861668373228</v>
@@ -11133,10 +11133,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11148,13 +11148,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>398.1526904575372</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>407.8513047438615</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>379.496126719849</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11370,10 +11370,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11385,10 +11385,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>573.1865904302379</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P45" t="n">
         <v>745.2028786174529</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>183.8529205572339</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23264,10 +23264,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>346.1288919215838</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-1.260869692797281e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>65.23940003763306</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -23434,7 +23434,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.7708825771268</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>233.0095101531597</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23704,16 +23704,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>22.13019988286152</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>233.0095101531588</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>66.44073542471752</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>233.0095101531593</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>43.34614817548638</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>22.1301998828649</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.0981677402031</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1023439.051262927</v>
+        <v>1017877.771554931</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1033356.168725216</v>
+        <v>1045142.658729699</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1042225.177584861</v>
+        <v>1045142.658729699</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>914986.2172955823</v>
+        <v>1026501.545684485</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1025092.811245881</v>
+        <v>1026501.545684485</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1025092.811245881</v>
+        <v>1026501.545684485</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1025092.811245881</v>
+        <v>1026501.545684485</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1058970.34707604</v>
+        <v>1026501.545684485</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1058970.34707604</v>
+        <v>1026501.545684485</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1058970.34707604</v>
+        <v>1062223.009213488</v>
       </c>
     </row>
     <row r="13">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640931</v>
+        <v>168386.4303908731</v>
       </c>
       <c r="C3" t="n">
-        <v>73895.50466563097</v>
+        <v>17370.29543921381</v>
       </c>
       <c r="D3" t="n">
-        <v>63540.91929575423</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>185041.8875582107</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>131466.0563231698</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13837.7091773643</v>
+      </c>
+      <c r="L3" t="n">
         <v>28539.68109811172</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15966.32703294114</v>
-      </c>
-      <c r="J3" t="n">
-        <v>7356.463848391494</v>
-      </c>
-      <c r="K3" t="n">
-        <v>94280.87641642753</v>
-      </c>
-      <c r="L3" t="n">
-        <v>45485.7642449126</v>
-      </c>
       <c r="M3" t="n">
-        <v>154442.653333656</v>
+        <v>145773.7708181578</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305120.5826568028</v>
+        <v>167673.6163730624</v>
       </c>
       <c r="C4" t="n">
-        <v>241266.4039911396</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="D4" t="n">
-        <v>184160.7703768716</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>38982.98778655796</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="F4" t="n">
-        <v>74982.61427576657</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="G4" t="n">
-        <v>74982.61427576657</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="H4" t="n">
-        <v>74982.61427576658</v>
+        <v>43748.40045389553</v>
       </c>
       <c r="I4" t="n">
-        <v>76430.3115629073</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="J4" t="n">
-        <v>76430.31156290731</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="K4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="L4" t="n">
+        <v>55487.12216806367</v>
+      </c>
+      <c r="M4" t="n">
+        <v>76430.31156290733</v>
+      </c>
+      <c r="N4" t="n">
+        <v>76430.31156290731</v>
+      </c>
+      <c r="O4" t="n">
         <v>76430.3115629073</v>
       </c>
-      <c r="M4" t="n">
-        <v>76430.31156290731</v>
-      </c>
-      <c r="N4" t="n">
-        <v>76430.3115629073</v>
-      </c>
-      <c r="O4" t="n">
-        <v>76430.31156290733</v>
-      </c>
       <c r="P4" t="n">
-        <v>76430.3115629073</v>
+        <v>76430.31156290734</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35337.07165607544</v>
+        <v>64177.26375857547</v>
       </c>
       <c r="C5" t="n">
-        <v>49243.77033956529</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>65733.54204300196</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>68732.6701057984</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>68732.6701057984</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>68732.6701057984</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>72383.20046482541</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>72383.20046482541</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>72383.20046482541</v>
+        <v>80749.19025122613</v>
       </c>
       <c r="M5" t="n">
-        <v>72383.20046482541</v>
+        <v>72383.20046482542</v>
       </c>
       <c r="N5" t="n">
         <v>72383.20046482542</v>
       </c>
       <c r="O5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482541</v>
       </c>
       <c r="P5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482541</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-349880.0765135192</v>
+        <v>-400273.897253702</v>
       </c>
       <c r="C6" t="n">
-        <v>-364405.6789963358</v>
+        <v>-250192.2855190985</v>
       </c>
       <c r="D6" t="n">
-        <v>-309382.4039428541</v>
+        <v>-232821.9900798847</v>
       </c>
       <c r="E6" t="n">
-        <v>-289758.4173877706</v>
+        <v>-337288.8498611501</v>
       </c>
       <c r="F6" t="n">
-        <v>-172254.9654796767</v>
+        <v>-121549.4933045095</v>
       </c>
       <c r="G6" t="n">
-        <v>-143715.284381565</v>
+        <v>-121549.4933045095</v>
       </c>
       <c r="H6" t="n">
-        <v>-143715.284381565</v>
+        <v>-121549.4933045095</v>
       </c>
       <c r="I6" t="n">
-        <v>-164779.8390606738</v>
+        <v>-121549.4933045095</v>
       </c>
       <c r="J6" t="n">
-        <v>-156169.9758761242</v>
+        <v>-253015.5496276793</v>
       </c>
       <c r="K6" t="n">
-        <v>-215779.3390587528</v>
+        <v>-135387.2024818738</v>
       </c>
       <c r="L6" t="n">
-        <v>-194299.2762726453</v>
+        <v>-164775.9935174015</v>
       </c>
       <c r="M6" t="n">
-        <v>-303256.1653613887</v>
+        <v>-294587.2828458905</v>
       </c>
       <c r="N6" t="n">
         <v>-148813.5120277327</v>
@@ -26695,25 +26695,25 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>35.67460137263964</v>
-      </c>
-      <c r="G2" t="n">
-        <v>35.67460137263964</v>
-      </c>
-      <c r="H2" t="n">
-        <v>35.67460137263964</v>
-      </c>
-      <c r="I2" t="n">
-        <v>35.67460137263964</v>
-      </c>
-      <c r="J2" t="n">
-        <v>35.67460137263964</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>35.67460137263963</v>
       </c>
       <c r="M2" t="n">
         <v>35.67460137263964</v>
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>502.4615749765703</v>
       </c>
       <c r="C4" t="n">
-        <v>256.8449069007449</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1081.143783602006</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>1081.143783602006</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1081.143783602006</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1081.143783602006</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="K4" t="n">
         <v>1278.783917572857</v>
       </c>
       <c r="L4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
         <v>1141.185401349161</v>
@@ -26917,25 +26917,25 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>35.67460137263964</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>35.67460137263963</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>502.4615749765703</v>
       </c>
       <c r="C4" t="n">
-        <v>228.7285967679252</v>
+        <v>53.76623813902387</v>
       </c>
       <c r="D4" t="n">
-        <v>204.5549988595893</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>619.7438778416717</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.04161774715476</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281976</v>
+        <v>502.4615749765703</v>
       </c>
       <c r="K4" t="n">
-        <v>366.3271129916211</v>
+        <v>53.76623813902387</v>
       </c>
       <c r="L4" t="n">
-        <v>66.95648263589339</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>619.7438778416717</v>
+        <v>584.9575882335668</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281968</v>
+        <v>502.4615749765703</v>
       </c>
       <c r="K4" t="n">
-        <v>228.7285967679252</v>
+        <v>53.76623813902387</v>
       </c>
       <c r="L4" t="n">
-        <v>204.5549988595893</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>619.7438778416717</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>99.4612293057645</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.52142919304239</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>115.6962903803109</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>174.8070973393067</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>166.4398532622953</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.4994630599574</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>150.4505183062925</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -27549,13 +27549,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>140.3173868732368</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>212.7896441635393</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>249.2662938818791</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>164.8722635528761</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27673,16 +27673,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>97.06961382426812</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>150.7578919431853</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>356.8884342533103</v>
+        <v>350.5048792244486</v>
       </c>
     </row>
     <row r="6">
@@ -27695,22 +27695,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>130.5379920719631</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -27789,10 +27789,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>19.29091348988686</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>20.53769711395387</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>22.04944581730649</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>244.9378573724053</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>348.7181951507457</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>213.4027168294472</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -27919,7 +27919,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>183.8853134985971</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -28020,16 +28020,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>128.0487154283647</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>35.67460137263964</v>
+        <v>-2.495430374854276e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>35.67460137263964</v>
+        <v>3.110756097157719e-12</v>
       </c>
       <c r="L16" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="C34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="D34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="E34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="F34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="G34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="H34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="I34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="J34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="K34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="L34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="M34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="N34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="O34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="P34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="R34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="S34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="T34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="U34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="V34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="W34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="X34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
     </row>
     <row r="35">
@@ -30405,7 +30405,7 @@
         <v>35.67460137263964</v>
       </c>
       <c r="K40" t="n">
-        <v>35.67460137263873</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="L40" t="n">
         <v>35.67460137263964</v>
@@ -30423,7 +30423,7 @@
         <v>35.67460137263964</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263902</v>
       </c>
       <c r="R40" t="n">
         <v>35.67460137263964</v>
@@ -30639,7 +30639,7 @@
         <v>35.67460137263964</v>
       </c>
       <c r="J43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263879</v>
       </c>
       <c r="K43" t="n">
         <v>35.67460137263964</v>
@@ -30748,7 +30748,7 @@
         <v>35.67460137263964</v>
       </c>
       <c r="T44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137264027</v>
       </c>
       <c r="U44" t="n">
         <v>35.67460137263964</v>
@@ -30876,7 +30876,7 @@
         <v>35.67460137263964</v>
       </c>
       <c r="J46" t="n">
-        <v>35.67460137263876</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="K46" t="n">
         <v>35.67460137263964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>499.611779551261</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>502.4615749765703</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>26.98029760220071</v>
+        <v>502.4615749765703</v>
       </c>
       <c r="P2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.11631013281968</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,34 +34772,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>490.8502547118383</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>502.4615749765703</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.11631013281968</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>28.11631013281968</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>202.2781880462463</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>28.11631013281968</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>28.11631013281968</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>26.98029760220071</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>127.7235622967728</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>256.8449069007449</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>256.8449069007449</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.8449069007449</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,19 +35024,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>163.6195469404086</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>256.8449069007449</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>256.8449069007449</v>
+        <v>527.4536661148496</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.8449069007449</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>118.1843750656017</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>256.8449069007449</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>256.8449069007449</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>256.8449069007449</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35176,25 +35176,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>324.7212149383462</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9096973612264</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>269.6796503957549</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>131.7987152719985</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
@@ -35422,7 +35422,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>462.7739363632869</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35498,19 +35498,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O12" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>376.8096622439955</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>131.7987152719985</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,13 +35738,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q15" t="n">
-        <v>122.2114398442798</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.74665008391037</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>264.4903601664146</v>
+        <v>228.815758793778</v>
       </c>
       <c r="L16" t="n">
-        <v>393.9466430841758</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>430.8117680092566</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>416.9791578130798</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>394.6929131703801</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>329.2091588695093</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>163.9575612117931</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35890,13 +35890,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>338.1597213074477</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>376.8096622439955</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
         <v>468.8338150129084</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>93.74665008391037</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>264.4903601664146</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>393.9466430841758</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>430.8117680092566</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>416.9791578130798</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>394.6929131703801</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>329.2091588695093</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>163.9575612117931</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>131.7987152719985</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>376.8096622439955</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
         <v>468.8338150129084</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>93.74665008391037</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>264.4903601664146</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>393.9466430841758</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>430.8117680092566</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>416.9791578130798</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>394.6929131703801</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>329.2091588695093</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>163.9575612117931</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>661.2340031633175</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>93.74665008391037</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>264.4903601664146</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
-        <v>393.9466430841758</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>430.8117680092566</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>416.9791578130798</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>394.6929131703801</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
-        <v>329.2091588695093</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>163.9575612117931</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>369.5392623112376</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.74665008391037</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K28" t="n">
-        <v>264.4903601664146</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L28" t="n">
-        <v>393.9466430841758</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M28" t="n">
-        <v>430.8117680092566</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N28" t="n">
-        <v>416.9791578130798</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O28" t="n">
-        <v>394.6929131703801</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P28" t="n">
-        <v>329.2091588695093</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>163.9575612117931</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>989.7889970553483</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>369.5392623112376</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.74665008391035</v>
+        <v>93.74665008391037</v>
       </c>
       <c r="K34" t="n">
         <v>264.4903601664146</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>369.5392623112376</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>342.0648638204181</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>3.273142294172274</v>
+        <v>369.5392623112385</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>551.8435622166962</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P39" t="n">
         <v>723.4320374126243</v>
@@ -37701,7 +37701,7 @@
         <v>93.74665008391037</v>
       </c>
       <c r="K40" t="n">
-        <v>264.4903601664137</v>
+        <v>264.4903601664146</v>
       </c>
       <c r="L40" t="n">
         <v>393.9466430841758</v>
@@ -37719,7 +37719,7 @@
         <v>329.2091588695093</v>
       </c>
       <c r="Q40" t="n">
-        <v>163.9575612117931</v>
+        <v>163.9575612117925</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>369.5392623112385</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>3.273142294171413</v>
       </c>
       <c r="M41" t="n">
         <v>1014.430405473796</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37868,13 +37868,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>376.8096622439955</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.74665008391037</v>
+        <v>93.74665008390951</v>
       </c>
       <c r="K43" t="n">
         <v>264.4903601664146</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>369.5392623112385</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>342.0648638204171</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38105,10 +38105,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P45" t="n">
         <v>723.4320374126243</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>93.74665008390949</v>
+        <v>93.74665008391037</v>
       </c>
       <c r="K46" t="n">
         <v>264.4903601664146</v>
